--- a/Early_Cancer_Detection.xlsx
+++ b/Early_Cancer_Detection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="36" windowWidth="3780" windowHeight="3720" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="36" windowWidth="3780" windowHeight="3720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>GSE79279</t>
   </si>
@@ -147,9 +147,6 @@
     <t>cfDNA</t>
   </si>
   <si>
-    <t xml:space="preserve">circulating mirna </t>
-  </si>
-  <si>
     <t>GSE112264</t>
   </si>
   <si>
@@ -220,6 +217,177 @@
   </si>
   <si>
     <t xml:space="preserve">3D-Gene Human miRNA </t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126386</t>
+  </si>
+  <si>
+    <t>Circulating miRNA expression profiling in primary aldosteronism</t>
+  </si>
+  <si>
+    <t>GSE126386</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98181</t>
+  </si>
+  <si>
+    <t>GSE98181</t>
+  </si>
+  <si>
+    <t>Circulating miRNA profiles from serum of women at high-risk for breast cancer</t>
+  </si>
+  <si>
+    <t>Farina NH, Ramsey JE, Cuke ME, Ahern TP et al. Development of a predictive miRNA signature for breast cancer risk among high-risk women. Oncotarget2017 Dec 22;8(68):112170-112183. PMID: 29348816</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70080</t>
+  </si>
+  <si>
+    <t>GSE70080</t>
+  </si>
+  <si>
+    <t>Real-time qPCR analysis of miRNA in serum from lung cancer patients, COPD patients and healthy controls</t>
+  </si>
+  <si>
+    <t>Detection of metastasis-specific miRNA for metastatic lesion of colorectal cancer</t>
+  </si>
+  <si>
+    <t>GSE73178</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73178</t>
+  </si>
+  <si>
+    <t>Circulating miRNA in serum of Wilms tumor patients</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE48137</t>
+  </si>
+  <si>
+    <t>circulating mirna cancer</t>
+  </si>
+  <si>
+    <t>GSE48137</t>
+  </si>
+  <si>
+    <t>Serum miRNA expression is associated with lung cancer in a case-control study and normalizes following surgical resection</t>
+  </si>
+  <si>
+    <t>GSE46729</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE46729</t>
+  </si>
+  <si>
+    <t>GSE57661</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57661</t>
+  </si>
+  <si>
+    <t>Alterations in circulating miRNAs following early-stage breast cancer resection</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE59993</t>
+  </si>
+  <si>
+    <t>GSE59993</t>
+  </si>
+  <si>
+    <t>Circulating miRNA microarray data from breast cancer patients</t>
+  </si>
+  <si>
+    <t>Landoni E, Miceli R, Callari M, Tiberio P et al. Proposal of supervised data analysis strategy of plasma miRNAs from hybridisation array data with an application to assess hemolysis-related deregulation. BMC Bioinformatics 2015 Nov 18;16:388. PMID: 26581577</t>
+  </si>
+  <si>
+    <t>microRNA profiles of serum exosomes in healthy controls and colorectal cancer patients-2</t>
+  </si>
+  <si>
+    <t>GSE40246</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE40246</t>
+  </si>
+  <si>
+    <t>Ogata-Kawata H, Izumiya M, Kurioka D, Honma Y et al. Circulating exosomal microRNAs as biomarkers of colon cancer. PLoS One 2014;9(4):e92921. PMID: 24705249</t>
+  </si>
+  <si>
+    <t>GSE39833</t>
+  </si>
+  <si>
+    <t>microRNA profiles of serum exosomes in healthy controls and colorectal cancer patients-1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE39833</t>
+  </si>
+  <si>
+    <t>Circulating microRNAs predict biochemical recurrence in prostate cancer patients</t>
+  </si>
+  <si>
+    <t>GSE47125</t>
+  </si>
+  <si>
+    <t>Selth LA, Townley SL, Bert AG, Stricker PD et al. Circulating microRNAs predict biochemical recurrence in prostate cancer patients. Br J Cancer 2013 Aug 6;109(3):641-50. PMID: 23846169</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE47125</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE42654</t>
+  </si>
+  <si>
+    <t>GSE42654</t>
+  </si>
+  <si>
+    <t>Circulating miRNA microarray analysis from archival plasma samples</t>
+  </si>
+  <si>
+    <t>Callari M, Tiberio P, De Cecco L, Cavadini E et al. Feasibility of circulating miRNA microarray analysis from archival plasma samples. Anal Biochem 2013 Jun 15;437(2):123-5. PMID: 23499963</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE87177</t>
+  </si>
+  <si>
+    <t>GSE87177</t>
+  </si>
+  <si>
+    <t>Genome wide methylation analysis of breast cancer epithelia, adjacent normal epithelia, breast cancer cell lines, and blood DNA from healthy individuals</t>
+  </si>
+  <si>
+    <t>Uehiro N, Sato F, Pu F, Tanaka S et al. Circulating cell-free DNA-based epigenetic assay can detect early breast cancer. Breast Cancer Res 2016 Dec 19;18(1):129. PMID: 27993161</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE63775</t>
+  </si>
+  <si>
+    <t>GSE63775</t>
+  </si>
+  <si>
+    <t>MCTA-Seq for profiling hypermethylated CpG islands in plasma of hepatocellular carcinoma patients</t>
+  </si>
+  <si>
+    <t>Wen L, Li J, Guo H, Liu X et al. Genome-scale detection of hypermethylated CpG islands in circulating cell-free DNA of hepatocellular carcinoma patients. Cell Res 2015 Nov;25(11):1250-64. PMID: 26516143</t>
+  </si>
+  <si>
+    <t>GSE51287</t>
+  </si>
+  <si>
+    <t>Methylation profiles of esophageal squamous cell carcinoma patients and cancer-free individual in Taiwan.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE51287</t>
+  </si>
+  <si>
+    <t>Cheng CP, Kuo IY, Alakus H, Frazer KA et al. Network-based analysis identifies epigenetic biomarkers of esophageal squamous cell carcinoma progression. Bioinformatics 2014 Nov 1;30(21):3054-61. PMID: 25015989</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE52621</t>
+  </si>
+  <si>
+    <t>GSE52621</t>
+  </si>
+  <si>
+    <t>Detection of hypermethylated circulating serum DNA in metastatic breast cancer and confirmation by the cMethDNA assay</t>
   </si>
 </sst>
 </file>
@@ -278,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,6 +483,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,16 +983,69 @@
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -834,107 +1068,273 @@
     <hyperlink ref="C11" r:id="rId17"/>
     <hyperlink ref="E11" r:id="rId18" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/26771485"/>
     <hyperlink ref="C12" r:id="rId19"/>
+    <hyperlink ref="C13" r:id="rId20"/>
+    <hyperlink ref="E13" r:id="rId21" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/27993161"/>
+    <hyperlink ref="C14" r:id="rId22"/>
+    <hyperlink ref="E14" r:id="rId23" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/26516143"/>
+    <hyperlink ref="C15" r:id="rId24"/>
+    <hyperlink ref="E15" r:id="rId25" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/25015989"/>
+    <hyperlink ref="C16" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57" style="6" customWidth="1"/>
     <col min="4" max="4" width="43.109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>43</v>
+      <c r="A1" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -948,8 +1348,27 @@
     <hyperlink ref="D5" r:id="rId8" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/30898996"/>
     <hyperlink ref="C6" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/31125107"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/29348816"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="C10" r:id="rId15"/>
+    <hyperlink ref="C11" r:id="rId16"/>
+    <hyperlink ref="C12" r:id="rId17"/>
+    <hyperlink ref="C13" r:id="rId18"/>
+    <hyperlink ref="C14" r:id="rId19"/>
+    <hyperlink ref="D14" r:id="rId20" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/26581577"/>
+    <hyperlink ref="C16" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22"/>
+    <hyperlink ref="D16" r:id="rId23" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/24705249"/>
+    <hyperlink ref="D15" r:id="rId24" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/24705249"/>
+    <hyperlink ref="D17" r:id="rId25" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/23846169"/>
+    <hyperlink ref="C17" r:id="rId26"/>
+    <hyperlink ref="C18" r:id="rId27"/>
+    <hyperlink ref="D18" r:id="rId28" tooltip="Link to PubMed record" display="https://www.ncbi.nlm.nih.gov/pubmed/23499963"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -957,15 +1376,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
